--- a/XuMiuDuTing/RabiConfig/xlsx/Bgm.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Bgm.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yufulao\Desktop\YuFramework\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC139D28-B47F-4EE5-AA7D-4647F03FFA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68230244-136C-4FBC-B3B9-8C39838810A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
-    <sheet name="Bgm" sheetId="1" r:id="rId2"/>
+    <sheet name="BGM" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>string</t>
   </si>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bgm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bgm名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,6 +43,18 @@
   </si>
   <si>
     <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-章节选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/主界面-章节选择界面.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,14 +387,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -401,7 +409,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -415,10 +423,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -426,7 +434,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -440,15 +448,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>

--- a/XuMiuDuTing/RabiConfig/xlsx/Bgm.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Bgm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68230244-136C-4FBC-B3B9-8C39838810A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5C2E4A-304C-4826-93DD-3853BE4157C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>string</t>
   </si>
@@ -54,7 +54,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/BGM/主界面-章节选择界面.mp3</t>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/主界面-章节选择界面.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/战前编队界面.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战前编队界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/战斗测试bgm·ABB/普通战斗a.MP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战斗a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/战斗测试bgm·ABB/普通战斗b.MP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战斗b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -464,6 +488,30 @@
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/Bgm.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Bgm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5C2E4A-304C-4826-93DD-3853BE4157C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9616011-A766-4B76-85EA-AD327B391D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>string</t>
   </si>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>普通战斗b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩崎太整 - Suspicion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/岩崎太整 - Suspicion.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,6 +520,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
